--- a/input/Dash_LCOE_ConfigurationV3.xlsx
+++ b/input/Dash_LCOE_ConfigurationV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DD9EB-3605-4D19-AEAD-B192B0BD276B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1781A04-4EE0-41CE-88B7-EF23E15ADF5B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2256" yWindow="600" windowWidth="25956" windowHeight="15528" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Fuel_NH3</t>
   </si>
   <si>
-    <t>costIncrease_percent_per_year</t>
-  </si>
-  <si>
     <t>Fuel_NG</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>size_kW</t>
   </si>
   <si>
-    <t>cost_Eur_per_kWh</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>literatur based estimations [11/2022]</t>
+  </si>
+  <si>
+    <t>fuel_cost_Eur_per_kWh</t>
+  </si>
+  <si>
+    <t>fuel_costIncrease_percent_per_year</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -626,16 +626,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -646,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5">
         <v>100</v>
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="5">
         <v>2900</v>
@@ -689,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5">
         <v>1760</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5">
         <v>4019</v>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5">
         <v>7.0000000000000007E-2</v>
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5">
         <v>0.05</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5">
         <v>0.15</v>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5">
         <v>35</v>
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5">
         <v>25</v>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5">
         <v>50</v>
@@ -846,10 +846,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5">
         <v>100</v>
@@ -869,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5">
         <v>2000</v>
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5">
         <v>1000</v>
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5">
         <v>3000</v>
@@ -929,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="5">
         <v>0.05</v>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="5">
         <v>0.04</v>
@@ -969,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5">
         <v>0.06</v>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="5">
         <v>55</v>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="5">
         <v>45</v>
@@ -1029,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5">
         <v>65</v>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="5">
         <v>45000</v>
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="5">
         <v>30000</v>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5">
         <v>60000</v>
@@ -1109,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="5">
         <v>60</v>
@@ -1129,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" s="5">
         <v>40</v>
@@ -1149,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="5">
         <v>70</v>
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="5">
         <v>100</v>
@@ -1189,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5">
         <v>1000</v>
@@ -1209,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="5">
         <v>800</v>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5">
         <v>1200</v>
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="5">
         <v>0.02</v>
@@ -1269,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="5">
         <v>0.01</v>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="5">
         <v>0.03</v>
@@ -1309,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35" s="5">
         <v>40</v>
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="5">
         <v>37</v>
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5">
         <v>42</v>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5">
         <v>3</v>
@@ -1443,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -1466,7 +1466,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5">
         <v>8</v>
@@ -1489,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5">
         <v>15</v>
@@ -1512,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5">
         <v>10</v>
@@ -1535,7 +1535,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5">
         <v>20</v>
@@ -1558,7 +1558,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5">
         <v>6000</v>
@@ -1581,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5">
         <v>4500</v>
@@ -1604,7 +1604,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5">
         <v>7000</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1921,22 +1921,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1947,10 +1947,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
         <v>8.6499999999999994E-2</v>
@@ -1973,10 +1973,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1">
         <v>0.51900000000000002</v>
@@ -1999,10 +1999,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>0.14000000000000001</v>
@@ -2025,10 +2025,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2051,10 +2051,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2097,10 +2097,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="5"/>
       <c r="F8" s="5">
@@ -2116,7 +2116,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5"/>
       <c r="F9" s="5">
@@ -2132,7 +2132,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5"/>
       <c r="F10" s="5">
@@ -2148,7 +2148,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5"/>
       <c r="F11" s="5">
@@ -2159,7 +2159,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5"/>
       <c r="F12" s="5">
@@ -2478,7 +2478,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2497,16 +2497,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2514,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5">
         <v>1.4999999999999999E-2</v>
@@ -2534,13 +2534,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5">
         <v>9.1999999999999998E-2</v>
@@ -2555,13 +2555,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5">
         <v>0.03</v>
@@ -2576,13 +2576,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -2596,13 +2596,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -2616,13 +2616,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="5">
         <v>11.6</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="5">
         <v>34.35</v>
@@ -2672,7 +2672,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5">
         <v>10.066990178017212</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
@@ -3069,13 +3069,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="D1" s="12"/>
     </row>
@@ -3084,10 +3084,10 @@
         <v>44855</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3095,10 +3095,10 @@
         <v>44887</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3106,10 +3106,10 @@
         <v>44889</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">

--- a/input/Dash_LCOE_ConfigurationV3.xlsx
+++ b/input/Dash_LCOE_ConfigurationV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1781A04-4EE0-41CE-88B7-EF23E15ADF5B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE280729-0724-484E-8C82-66ECDFFDA186}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="600" windowWidth="25956" windowHeight="15528" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2256" yWindow="600" windowWidth="25956" windowHeight="15528" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1301B-A377-4F3E-A07F-0E5926CDAB2B}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,7 +1979,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="1">
-        <v>0.51900000000000002</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="F3" s="5">
         <v>0.11408083441981746</v>
@@ -2477,7 +2477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DF341-8C1A-4D19-88F8-FE2D2A0FBA8F}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/input/Dash_LCOE_ConfigurationV3.xlsx
+++ b/input/Dash_LCOE_ConfigurationV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE280729-0724-484E-8C82-66ECDFFDA186}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A00339-7130-4674-BFBA-A98138A2127D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2256" yWindow="600" windowWidth="25956" windowHeight="15528" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input/Dash_LCOE_ConfigurationV3.xlsx
+++ b/input/Dash_LCOE_ConfigurationV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\PycharmProjects\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A00339-7130-4674-BFBA-A98138A2127D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63974BD-6748-4737-9FAC-4F93E7CC8BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="600" windowWidth="25956" windowHeight="15528" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <sheet name="Fuel_NG" sheetId="4" r:id="rId4"/>
     <sheet name="Revision" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="51">
   <si>
     <t>component</t>
   </si>
@@ -171,6 +184,12 @@
   </si>
   <si>
     <t>fuel_costIncrease_percent_per_year</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
 </sst>
 </file>
@@ -604,763 +623,877 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="35.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="81.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>100</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>2900</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1800</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>1760</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>740</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>4019</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>2145</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" s="5">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.05</v>
       </c>
       <c r="F7" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.15</v>
       </c>
       <c r="F8" s="5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>35</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>25</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="5">
-        <v>50</v>
-      </c>
       <c r="F11" s="5">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>100</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>2000</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>1000</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>3000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.05</v>
       </c>
       <c r="F16" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.04</v>
       </c>
       <c r="F17" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.06</v>
       </c>
       <c r="F18" s="5">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E19" s="5">
-        <v>55</v>
       </c>
       <c r="F19" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" s="5">
-        <v>45</v>
       </c>
       <c r="F20" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E21" s="5">
-        <v>65</v>
       </c>
       <c r="F21" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E22" s="5">
-        <v>45000</v>
       </c>
       <c r="F22" s="5">
         <v>45000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="5">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E23" s="5">
-        <v>30000</v>
       </c>
       <c r="F23" s="5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E24" s="5">
-        <v>60000</v>
       </c>
       <c r="F24" s="5">
         <v>60000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E25" s="5">
-        <v>60</v>
       </c>
       <c r="F25" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E26" s="5">
-        <v>40</v>
       </c>
       <c r="F26" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E27" s="5">
-        <v>70</v>
       </c>
       <c r="F27" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>100</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1000</v>
       </c>
       <c r="F29" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E30" s="5">
-        <v>800</v>
       </c>
       <c r="F30" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1200</v>
       </c>
       <c r="F31" s="5">
         <v>1200</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0.02</v>
       </c>
       <c r="F32" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.01</v>
       </c>
       <c r="F33" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0.03</v>
       </c>
       <c r="F34" s="5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E35" s="5">
-        <v>40</v>
       </c>
       <c r="F35" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E36" s="5">
-        <v>37</v>
       </c>
       <c r="F36" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E37" s="5">
-        <v>42</v>
       </c>
       <c r="F37" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1371,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708E7F0-2DE7-4611-91D4-02BADD085AA2}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,42 +1521,45 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3</v>
       </c>
       <c r="F2" s="5">
         <v>3</v>
@@ -1431,22 +1567,25 @@
       <c r="G2" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -1454,22 +1593,25 @@
       <c r="G3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8</v>
       </c>
       <c r="F4" s="5">
         <v>8</v>
@@ -1477,146 +1619,167 @@
       <c r="G4" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" s="5">
-        <v>15</v>
       </c>
       <c r="F5" s="5">
         <v>15</v>
       </c>
       <c r="G5" s="5">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
       </c>
       <c r="F6" s="5">
         <v>10</v>
       </c>
       <c r="G6" s="5">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" s="5">
-        <v>20</v>
       </c>
       <c r="F7" s="5">
         <v>20</v>
       </c>
       <c r="G7" s="5">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6000</v>
       </c>
       <c r="F8" s="5">
         <v>6000</v>
       </c>
       <c r="G8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="H8" s="5">
         <v>750</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4500</v>
       </c>
       <c r="F9" s="5">
         <v>4500</v>
       </c>
       <c r="G9" s="5">
+        <v>4500</v>
+      </c>
+      <c r="H9" s="5">
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="5">
-        <v>7000</v>
       </c>
       <c r="F10" s="5">
         <v>7000</v>
       </c>
       <c r="G10" s="5">
+        <v>7000</v>
+      </c>
+      <c r="H10" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1624,224 +1787,252 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1896,577 +2087,647 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1301B-A377-4F3E-A07F-0E5926CDAB2B}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="72.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>0.16297262059973924</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>0.10593220338983052</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>9.3709256844850056E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>0.11408083441981746</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>7.822685788787484E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>6.51890482398957E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>0.22001303780964804</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>0.14667535853976532</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.12222946544980444</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="F8" s="5">
+      <c r="D8" s="5"/>
+      <c r="G8" s="5">
         <v>1000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>650</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="F9" s="5">
+      <c r="D9" s="5"/>
+      <c r="G9" s="5">
         <v>700</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>480</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="F10" s="5">
+      <c r="D10" s="5"/>
+      <c r="G10" s="5">
         <v>1350</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>900</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>750</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="F11" s="5">
+      <c r="D11" s="5"/>
+      <c r="G11" s="5">
         <v>5.2</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="F12" s="5">
+      <c r="D12" s="5"/>
+      <c r="G12" s="5">
         <v>0.84745762711864414</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2475,163 +2736,185 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DF341-8C1A-4D19-88F8-FE2D2A0FBA8F}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="90.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="35.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="90.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>9.4971605452992547E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F3" s="5">
-        <f>F2*0.9</f>
+      <c r="G3" s="5">
+        <f>G2*0.9</f>
         <v>8.5474444907693292E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>0.03</v>
       </c>
-      <c r="F4" s="5">
-        <f>F2*1.1</f>
+      <c r="G4" s="5">
+        <f>G2*1.1</f>
         <v>1.044687659982918E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2640,414 +2923,466 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>11.6</v>
       </c>
-      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>34.35</v>
       </c>
-      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>10.066990178017212</v>
       </c>
-      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>0.94339622641509424</v>
       </c>
-      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3059,7 +3394,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,9 +3448,15 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="10">
+        <v>44905</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>

--- a/input/Dash_LCOE_ConfigurationV3.xlsx
+++ b/input/Dash_LCOE_ConfigurationV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\PycharmProjects\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63974BD-6748-4737-9FAC-4F93E7CC8BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A8F2A-EAC3-4E24-9B09-3A40F8768E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708E7F0-2DE7-4611-91D4-02BADD085AA2}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,13 +1536,13 @@
         <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1643,10 +1643,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
         <v>15</v>
-      </c>
-      <c r="H5" s="5">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1669,10 +1669,10 @@
         <v>10</v>
       </c>
       <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
         <v>10</v>
-      </c>
-      <c r="H6" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1695,10 +1695,10 @@
         <v>20</v>
       </c>
       <c r="G7" s="5">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
         <v>20</v>
-      </c>
-      <c r="H7" s="5">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1721,10 +1721,10 @@
         <v>6000</v>
       </c>
       <c r="G8" s="5">
+        <v>750</v>
+      </c>
+      <c r="H8" s="5">
         <v>6000</v>
-      </c>
-      <c r="H8" s="5">
-        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1747,10 +1747,10 @@
         <v>4500</v>
       </c>
       <c r="G9" s="5">
+        <v>700</v>
+      </c>
+      <c r="H9" s="5">
         <v>4500</v>
-      </c>
-      <c r="H9" s="5">
-        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1773,10 +1773,10 @@
         <v>7000</v>
       </c>
       <c r="G10" s="5">
+        <v>800</v>
+      </c>
+      <c r="H10" s="5">
         <v>7000</v>
-      </c>
-      <c r="H10" s="5">
-        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2738,7 +2738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DF341-8C1A-4D19-88F8-FE2D2A0FBA8F}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
